--- a/data processing/goFlux_reprocessing/results/canopy_flux_goFlux_compiled.xlsx
+++ b/data processing/goFlux_reprocessing/results/canopy_flux_goFlux_compiled.xlsx
@@ -3318,7 +3318,7 @@
         <v>74</v>
       </c>
       <c r="Y4" t="n">
-        <v>-0.578890542707948</v>
+        <v>-0.283480188239537</v>
       </c>
       <c r="Z4" t="s">
         <v>86</v>
@@ -3327,7 +3327,7 @@
         <v>87</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0.578890542707948</v>
+        <v>-0.283480188239537</v>
       </c>
       <c r="AC4" t="n">
         <v>0.998269885766586</v>
@@ -3339,7 +3339,7 @@
         <v>1.04879758579008</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.65922722638662</v>
+        <v>-0.322820713833957</v>
       </c>
       <c r="AG4" t="n">
         <v>0.996751357702747</v>
@@ -3357,16 +3357,16 @@
         <v>250</v>
       </c>
       <c r="AL4" t="n">
-        <v>1.64741226550211</v>
+        <v>0.806730641941524</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.00132855827863073</v>
+        <v>0.000650589227372196</v>
       </c>
       <c r="AN4" t="n">
         <v>1.13877698416504</v>
       </c>
       <c r="AO4" t="n">
-        <v>-0.00721538338510404</v>
+        <v>-0.00353334195211</v>
       </c>
       <c r="AP4" t="s">
         <v>75</v>
@@ -3375,7 +3375,7 @@
         <v>88</v>
       </c>
       <c r="AR4" t="n">
-        <v>-0.00544185948461986</v>
+        <v>-0.00266485498943696</v>
       </c>
       <c r="AS4" t="n">
         <v>0.000714570624363642</v>
@@ -3387,7 +3387,7 @@
         <v>3.44308295473275</v>
       </c>
       <c r="AV4" t="n">
-        <v>-0.00721538338510404</v>
+        <v>-0.00353334195211</v>
       </c>
       <c r="AW4" t="n">
         <v>0.000746568260286185</v>
@@ -3405,10 +3405,10 @@
         <v>250</v>
       </c>
       <c r="BB4" t="n">
-        <v>1.64741226550211</v>
+        <v>0.806730641941524</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.00929990795041514</v>
+        <v>0.00455412459160537</v>
       </c>
       <c r="BD4" t="n">
         <v>1.3259040233392</v>
@@ -3488,7 +3488,7 @@
         <v>96</v>
       </c>
       <c r="Y5" t="n">
-        <v>-1.44532372524389</v>
+        <v>-0.707768760191876</v>
       </c>
       <c r="Z5" t="s">
         <v>86</v>
@@ -3497,7 +3497,7 @@
         <v>87</v>
       </c>
       <c r="AB5" t="n">
-        <v>-1.44532372524389</v>
+        <v>-0.707768760191876</v>
       </c>
       <c r="AC5" t="n">
         <v>0.998713457661317</v>
@@ -3509,7 +3509,7 @@
         <v>1.62413321564244</v>
       </c>
       <c r="AF5" t="n">
-        <v>-1.77043232004861</v>
+        <v>-0.866973029141264</v>
       </c>
       <c r="AG5" t="n">
         <v>0.996719612677832</v>
@@ -3527,16 +3527,16 @@
         <v>180</v>
       </c>
       <c r="AL5" t="n">
-        <v>1.64195803787281</v>
+        <v>0.804059730325273</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.00183458998645006</v>
+        <v>0.00089839076013997</v>
       </c>
       <c r="AN5" t="n">
         <v>1.22493825371189</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.00682263829944156</v>
+        <v>0.00334101638691257</v>
       </c>
       <c r="AP5" t="s">
         <v>86</v>
@@ -3545,7 +3545,7 @@
         <v>97</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.00682263829944156</v>
+        <v>0.00334101638691257</v>
       </c>
       <c r="AS5" t="n">
         <v>0.000638417369216882</v>
@@ -3569,10 +3569,10 @@
         <v>180</v>
       </c>
       <c r="BB5" t="n">
-        <v>1.64195803787281</v>
+        <v>0.804059730325273</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.0128421299051504</v>
+        <v>0.00628873532097979</v>
       </c>
       <c r="BD5"/>
     </row>
@@ -3990,7 +3990,7 @@
         <v>74</v>
       </c>
       <c r="Y8" t="n">
-        <v>-1.37000793079041</v>
+        <v>-0.67088694227651</v>
       </c>
       <c r="Z8" t="s">
         <v>75</v>
@@ -3999,7 +3999,7 @@
         <v>74</v>
       </c>
       <c r="AB8" t="n">
-        <v>-1.07735597641805</v>
+        <v>-0.527576549389335</v>
       </c>
       <c r="AC8" t="n">
         <v>0.993156805527823</v>
@@ -4011,7 +4011,7 @@
         <v>3.35158678798115</v>
       </c>
       <c r="AF8" t="n">
-        <v>-1.37000793079041</v>
+        <v>-0.67088694227651</v>
       </c>
       <c r="AG8" t="n">
         <v>0.997372826389476</v>
@@ -4029,16 +4029,16 @@
         <v>215</v>
       </c>
       <c r="AL8" t="n">
-        <v>1.64647294914797</v>
+        <v>0.806270662796514</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.00153875976555885</v>
+        <v>0.000753523983921975</v>
       </c>
       <c r="AN8" t="n">
         <v>1.27163905039573</v>
       </c>
       <c r="AO8" t="n">
-        <v>-0.00197168061933799</v>
+        <v>-0.000965523448532416</v>
       </c>
       <c r="AP8" t="s">
         <v>75</v>
@@ -4047,7 +4047,7 @@
         <v>88</v>
       </c>
       <c r="AR8" t="n">
-        <v>-0.00197097421625937</v>
+        <v>-0.000965177526008335</v>
       </c>
       <c r="AS8" t="n">
         <v>-0.00431266486270832</v>
@@ -4059,7 +4059,7 @@
         <v>3.79560878582135</v>
       </c>
       <c r="AV8" t="n">
-        <v>-0.00197168061933799</v>
+        <v>-0.000965523448532416</v>
       </c>
       <c r="AW8" t="n">
         <v>-0.00431303955160245</v>
@@ -4077,10 +4077,10 @@
         <v>215</v>
       </c>
       <c r="BB8" t="n">
-        <v>1.64647294914797</v>
+        <v>0.806270662796514</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.0107713183589119</v>
+        <v>0.00527466788745383</v>
       </c>
       <c r="BD8" t="n">
         <v>1.00035840300334</v>
@@ -4160,7 +4160,7 @@
         <v>115</v>
       </c>
       <c r="Y9" t="n">
-        <v>-0.865555236263556</v>
+        <v>-0.423858645470217</v>
       </c>
       <c r="Z9" t="s">
         <v>86</v>
@@ -4169,7 +4169,7 @@
         <v>87</v>
       </c>
       <c r="AB9" t="n">
-        <v>-0.865555236263556</v>
+        <v>-0.423858645470217</v>
       </c>
       <c r="AC9" t="n">
         <v>0.997193179176985</v>
@@ -4181,7 +4181,7 @@
         <v>1.67953990228936</v>
       </c>
       <c r="AF9" t="n">
-        <v>-1.00859515234593</v>
+        <v>-0.493904672042212</v>
       </c>
       <c r="AG9" t="n">
         <v>0.992897400268458</v>
@@ -4199,16 +4199,16 @@
         <v>209</v>
       </c>
       <c r="AL9" t="n">
-        <v>1.64074490528941</v>
+        <v>0.803465664560279</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.0015852607780574</v>
+        <v>0.000776295328077564</v>
       </c>
       <c r="AN9" t="n">
         <v>1.1652579871157</v>
       </c>
       <c r="AO9" t="n">
-        <v>-0.00405275247132986</v>
+        <v>-0.00198461530928905</v>
       </c>
       <c r="AP9" t="s">
         <v>75</v>
@@ -4217,7 +4217,7 @@
         <v>88</v>
       </c>
       <c r="AR9" t="n">
-        <v>-0.0040333753383525</v>
+        <v>-0.00197512641130451</v>
       </c>
       <c r="AS9" t="n">
         <v>-0.00343379843307812</v>
@@ -4229,7 +4229,7 @@
         <v>3.96299486190336</v>
       </c>
       <c r="AV9" t="n">
-        <v>-0.00405275247132986</v>
+        <v>-0.00198461530928905</v>
       </c>
       <c r="AW9" t="n">
         <v>-0.00343443123213882</v>
@@ -4247,10 +4247,10 @@
         <v>209</v>
       </c>
       <c r="BB9" t="n">
-        <v>1.64074490528941</v>
+        <v>0.803465664560279</v>
       </c>
       <c r="BC9" t="n">
-        <v>0.0110968254464018</v>
+        <v>0.00543406729654295</v>
       </c>
       <c r="BD9" t="n">
         <v>1.00480419781247</v>
@@ -4330,7 +4330,7 @@
         <v>120</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.756916634396914</v>
+        <v>0.370658793278517</v>
       </c>
       <c r="Z10" t="s">
         <v>75</v>
@@ -4339,7 +4339,7 @@
         <v>121</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.74509197444384</v>
+        <v>0.364868308580519</v>
       </c>
       <c r="AC10" t="n">
         <v>0.992900540593155</v>
@@ -4351,7 +4351,7 @@
         <v>1.98481426587221</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.756916634396914</v>
+        <v>0.370658793278517</v>
       </c>
       <c r="AG10" t="n">
         <v>0.992882381548797</v>
@@ -4369,16 +4369,16 @@
         <v>180</v>
       </c>
       <c r="AL10" t="n">
-        <v>1.63155238730934</v>
+        <v>0.798964128371424</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.00182296356123948</v>
+        <v>0.00089269735013567</v>
       </c>
       <c r="AN10" t="n">
         <v>1.01587006753348</v>
       </c>
       <c r="AO10" t="n">
-        <v>-0.0201103349731954</v>
+        <v>-0.0098479438221496</v>
       </c>
       <c r="AP10" t="s">
         <v>75</v>
@@ -4387,7 +4387,7 @@
         <v>121</v>
       </c>
       <c r="AR10" t="n">
-        <v>-0.0199555100227224</v>
+        <v>-0.0097721267153457</v>
       </c>
       <c r="AS10" t="n">
         <v>0.0220353666416618</v>
@@ -4399,7 +4399,7 @@
         <v>3.74909103548241</v>
       </c>
       <c r="AV10" t="n">
-        <v>-0.0201103349731954</v>
+        <v>-0.0098479438221496</v>
       </c>
       <c r="AW10" t="n">
         <v>0.0220306303821657</v>
@@ -4417,10 +4417,10 @@
         <v>180</v>
       </c>
       <c r="BB10" t="n">
-        <v>1.63155238730934</v>
+        <v>0.798964128371424</v>
       </c>
       <c r="BC10" t="n">
-        <v>0.0127607449286764</v>
+        <v>0.00624888145094969</v>
       </c>
       <c r="BD10" t="n">
         <v>1.00775850631213</v>
@@ -4670,7 +4670,7 @@
         <v>137</v>
       </c>
       <c r="Y12" t="n">
-        <v>-0.684369125934623</v>
+        <v>-0.33513259300757</v>
       </c>
       <c r="Z12" t="s">
         <v>86</v>
@@ -4679,7 +4679,7 @@
         <v>87</v>
       </c>
       <c r="AB12" t="n">
-        <v>-0.684369125934623</v>
+        <v>-0.33513259300757</v>
       </c>
       <c r="AC12" t="n">
         <v>0.997210641650461</v>
@@ -4691,7 +4691,7 @@
         <v>1.74941918939414</v>
       </c>
       <c r="AF12" t="n">
-        <v>-0.81237028872179</v>
+        <v>-0.397814207310763</v>
       </c>
       <c r="AG12" t="n">
         <v>0.994427943333383</v>
@@ -4709,16 +4709,16 @@
         <v>275</v>
       </c>
       <c r="AL12" t="n">
-        <v>1.63141229517107</v>
+        <v>0.798895525858864</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.00119081189428545</v>
+        <v>0.000583135420334937</v>
       </c>
       <c r="AN12" t="n">
         <v>1.18703526786419</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.0043791617031354</v>
+        <v>0.00214445649453715</v>
       </c>
       <c r="AP12" t="s">
         <v>86</v>
@@ -4727,7 +4727,7 @@
         <v>97</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.0043791617031354</v>
+        <v>0.00214445649453715</v>
       </c>
       <c r="AS12" t="n">
         <v>0.000631098192193646</v>
@@ -4751,10 +4751,10 @@
         <v>275</v>
       </c>
       <c r="BB12" t="n">
-        <v>1.63141229517107</v>
+        <v>0.798895525858864</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.00833568325999816</v>
+        <v>0.00408194794234456</v>
       </c>
       <c r="BD12"/>
     </row>
@@ -4832,7 +4832,7 @@
         <v>145</v>
       </c>
       <c r="Y13" t="n">
-        <v>-0.518612268606545</v>
+        <v>-0.25396217882607</v>
       </c>
       <c r="Z13" t="s">
         <v>86</v>
@@ -4841,7 +4841,7 @@
         <v>87</v>
       </c>
       <c r="AB13" t="n">
-        <v>-0.518612268606545</v>
+        <v>-0.25396217882607</v>
       </c>
       <c r="AC13" t="n">
         <v>0.994061905107379</v>
@@ -4853,7 +4853,7 @@
         <v>1.41540300961887</v>
       </c>
       <c r="AF13" t="n">
-        <v>-0.564053677606575</v>
+        <v>-0.276214639743707</v>
       </c>
       <c r="AG13" t="n">
         <v>0.993646470084973</v>
@@ -4871,16 +4871,16 @@
         <v>202</v>
       </c>
       <c r="AL13" t="n">
-        <v>1.63671486535421</v>
+        <v>0.801492171481435</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.00162857200532757</v>
+        <v>0.000797504648240234</v>
       </c>
       <c r="AN13" t="n">
         <v>1.0876211608378</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.005091225204229</v>
+        <v>0.00249315090295548</v>
       </c>
       <c r="AP13" t="s">
         <v>86</v>
@@ -4889,7 +4889,7 @@
         <v>97</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.005091225204229</v>
+        <v>0.00249315090295548</v>
       </c>
       <c r="AS13" t="n">
         <v>-0.00225228831965074</v>
@@ -4913,10 +4913,10 @@
         <v>202</v>
       </c>
       <c r="BB13" t="n">
-        <v>1.63671486535421</v>
+        <v>0.801492171481435</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.011400004037293</v>
+        <v>0.00558253253768163</v>
       </c>
       <c r="BD13"/>
     </row>
@@ -5504,7 +5504,7 @@
         <v>174</v>
       </c>
       <c r="Y17" t="n">
-        <v>-2.21840932608757</v>
+        <v>-2.38954636068111</v>
       </c>
       <c r="Z17" t="s">
         <v>75</v>
@@ -5513,7 +5513,7 @@
         <v>74</v>
       </c>
       <c r="AB17" t="n">
-        <v>-1.28480128586932</v>
+        <v>-1.38391603422526</v>
       </c>
       <c r="AC17" t="n">
         <v>0.974942998312819</v>
@@ -5525,7 +5525,7 @@
         <v>11.1991120731697</v>
       </c>
       <c r="AF17" t="n">
-        <v>-2.21840932608757</v>
+        <v>-2.38954636068111</v>
       </c>
       <c r="AG17" t="n">
         <v>0.997446765523847</v>
@@ -5543,16 +5543,16 @@
         <v>318</v>
       </c>
       <c r="AL17" t="n">
-        <v>1.67780746992351</v>
+        <v>1.80724029895331</v>
       </c>
       <c r="AM17" t="n">
-        <v>0.00105855360878455</v>
+        <v>0.00114021469965509</v>
       </c>
       <c r="AN17" t="n">
         <v>1.72665559295931</v>
       </c>
       <c r="AO17" t="n">
-        <v>-0.0134281298630519</v>
+        <v>-0.0144640299099348</v>
       </c>
       <c r="AP17" t="s">
         <v>86</v>
@@ -5561,7 +5561,7 @@
         <v>160</v>
       </c>
       <c r="AR17" t="n">
-        <v>-0.0134281298630519</v>
+        <v>-0.0144640299099348</v>
       </c>
       <c r="AS17" t="n">
         <v>0.0164141654173576</v>
@@ -5573,7 +5573,7 @@
         <v>5.18329438330028</v>
       </c>
       <c r="AV17" t="n">
-        <v>-0.0345374969002727</v>
+        <v>-0.0372018585815412</v>
       </c>
       <c r="AW17" t="n">
         <v>0.0231894387383275</v>
@@ -5591,10 +5591,10 @@
         <v>318</v>
       </c>
       <c r="BB17" t="n">
-        <v>1.67780746992351</v>
+        <v>1.80724029895331</v>
       </c>
       <c r="BC17" t="n">
-        <v>0.00740987526149185</v>
+        <v>0.0079815028975856</v>
       </c>
       <c r="BD17" t="n">
         <v>2.57202583326992</v>
@@ -5674,7 +5674,7 @@
         <v>181</v>
       </c>
       <c r="Y18" t="n">
-        <v>-0.668695013221734</v>
+        <v>-0.720280841077985</v>
       </c>
       <c r="Z18" t="s">
         <v>86</v>
@@ -5683,7 +5683,7 @@
         <v>87</v>
       </c>
       <c r="AB18" t="n">
-        <v>-0.668695013221734</v>
+        <v>-0.720280841077985</v>
       </c>
       <c r="AC18" t="n">
         <v>0.998456253866097</v>
@@ -5695,7 +5695,7 @@
         <v>0.890941740129737</v>
       </c>
       <c r="AF18" t="n">
-        <v>-0.739901474684596</v>
+        <v>-0.7969804559077</v>
       </c>
       <c r="AG18" t="n">
         <v>0.997275045341454</v>
@@ -5713,16 +5713,16 @@
         <v>198</v>
       </c>
       <c r="AL18" t="n">
-        <v>1.67987245817031</v>
+        <v>1.80946458871443</v>
       </c>
       <c r="AM18" t="n">
-        <v>0.00170545427225412</v>
+        <v>0.00183701988701972</v>
       </c>
       <c r="AN18" t="n">
         <v>1.10648570731789</v>
       </c>
       <c r="AO18" t="n">
-        <v>0.00114572797797389</v>
+        <v>0.0012341140509567</v>
       </c>
       <c r="AP18" t="s">
         <v>86</v>
@@ -5731,7 +5731,7 @@
         <v>97</v>
       </c>
       <c r="AR18" t="n">
-        <v>0.00114572797797389</v>
+        <v>0.0012341140509567</v>
       </c>
       <c r="AS18" t="n">
         <v>-0.00489919278132955</v>
@@ -5755,10 +5755,10 @@
         <v>198</v>
       </c>
       <c r="BB18" t="n">
-        <v>1.67987245817031</v>
+        <v>1.80946458871443</v>
       </c>
       <c r="BC18" t="n">
-        <v>0.0119381799057788</v>
+        <v>0.012859139209138</v>
       </c>
       <c r="BD18"/>
     </row>
@@ -10410,7 +10410,7 @@
         <v>308</v>
       </c>
       <c r="Y46" t="n">
-        <v>-1.02737999475829</v>
+        <v>-1.10663622742738</v>
       </c>
       <c r="Z46" t="s">
         <v>75</v>
@@ -10419,7 +10419,7 @@
         <v>74</v>
       </c>
       <c r="AB46" t="n">
-        <v>-0.537417528975959</v>
+        <v>-0.578876082709024</v>
       </c>
       <c r="AC46" t="n">
         <v>0.958129273632296</v>
@@ -10431,7 +10431,7 @@
         <v>3.34973494896115</v>
       </c>
       <c r="AF46" t="n">
-        <v>-1.02737999475829</v>
+        <v>-1.10663622742738</v>
       </c>
       <c r="AG46" t="n">
         <v>0.997253200360017</v>
@@ -10449,16 +10449,16 @@
         <v>18</v>
       </c>
       <c r="AL46" t="n">
-        <v>1.67200693117235</v>
+        <v>1.80099228326936</v>
       </c>
       <c r="AM46" t="n">
-        <v>0.00196706697784983</v>
+        <v>0.00211881445090513</v>
       </c>
       <c r="AN46" t="n">
         <v>1.91169796176159</v>
       </c>
       <c r="AO46" t="n">
-        <v>0.00724737756843108</v>
+        <v>0.00780646947769043</v>
       </c>
       <c r="AP46" t="s">
         <v>86</v>
@@ -10467,7 +10467,7 @@
         <v>97</v>
       </c>
       <c r="AR46" t="n">
-        <v>0.00724737756843108</v>
+        <v>0.00780646947769043</v>
       </c>
       <c r="AS46" t="n">
         <v>0.186333013802759</v>
@@ -10491,10 +10491,10 @@
         <v>18</v>
       </c>
       <c r="BB46" t="n">
-        <v>1.67200693117235</v>
+        <v>1.80099228326936</v>
       </c>
       <c r="BC46" t="n">
-        <v>0.0137694688449488</v>
+        <v>0.0148317011563359</v>
       </c>
       <c r="BD46"/>
     </row>
@@ -12434,7 +12434,7 @@
         <v>355</v>
       </c>
       <c r="Y58" t="n">
-        <v>-3.31209272952174</v>
+        <v>-2.8432351743187</v>
       </c>
       <c r="Z58" t="s">
         <v>75</v>
@@ -12443,7 +12443,7 @@
         <v>74</v>
       </c>
       <c r="AB58" t="n">
-        <v>-1.69416969657185</v>
+        <v>-1.45434420649613</v>
       </c>
       <c r="AC58" t="n">
         <v>0.96089546315884</v>
@@ -12455,7 +12455,7 @@
         <v>7.89790831901796</v>
       </c>
       <c r="AF58" t="n">
-        <v>-3.31209272952174</v>
+        <v>-2.8432351743187</v>
       </c>
       <c r="AG58" t="n">
         <v>0.999692651727862</v>
@@ -12473,16 +12473,16 @@
         <v>18</v>
       </c>
       <c r="AL58" t="n">
-        <v>2.16828492160591</v>
+        <v>1.8613440083077</v>
       </c>
       <c r="AM58" t="n">
-        <v>0.00255092343718342</v>
+        <v>0.002189816480362</v>
       </c>
       <c r="AN58" t="n">
         <v>1.95499467156317</v>
       </c>
       <c r="AO58" t="n">
-        <v>0.0194630433362203</v>
+        <v>0.0167078683877372</v>
       </c>
       <c r="AP58" t="s">
         <v>75</v>
@@ -12491,7 +12491,7 @@
         <v>121</v>
       </c>
       <c r="AR58" t="n">
-        <v>0.0134150697815521</v>
+        <v>0.0115160417849643</v>
       </c>
       <c r="AS58" t="n">
         <v>0.269508790787866</v>
@@ -12503,7 +12503,7 @@
         <v>0.474557663202897</v>
       </c>
       <c r="AV58" t="n">
-        <v>0.0194630433362203</v>
+        <v>0.0167078683877372</v>
       </c>
       <c r="AW58" t="n">
         <v>0.282082811883527</v>
@@ -12521,10 +12521,10 @@
         <v>18</v>
       </c>
       <c r="BB58" t="n">
-        <v>2.16828492160591</v>
+        <v>1.8613440083077</v>
       </c>
       <c r="BC58" t="n">
-        <v>0.017856464060284</v>
+        <v>0.015328715362534</v>
       </c>
       <c r="BD58" t="n">
         <v>1.45083429703699</v>
@@ -13114,7 +13114,7 @@
         <v>373</v>
       </c>
       <c r="Y62" t="n">
-        <v>-1.26672029459668</v>
+        <v>-1.08740424611864</v>
       </c>
       <c r="Z62" t="s">
         <v>75</v>
@@ -13123,7 +13123,7 @@
         <v>74</v>
       </c>
       <c r="AB62" t="n">
-        <v>-1.05045360359779</v>
+        <v>-0.901752118265827</v>
       </c>
       <c r="AC62" t="n">
         <v>0.998051275336917</v>
@@ -13135,7 +13135,7 @@
         <v>1.9364905256773</v>
       </c>
       <c r="AF62" t="n">
-        <v>-1.26672029459668</v>
+        <v>-1.08740424611864</v>
       </c>
       <c r="AG62" t="n">
         <v>0.99885839650062</v>
@@ -13153,16 +13153,16 @@
         <v>32</v>
       </c>
       <c r="AL62" t="n">
-        <v>2.16547536133856</v>
+        <v>1.8589321674479</v>
       </c>
       <c r="AM62" t="n">
-        <v>0.00140160217562366</v>
+        <v>0.00120319234139022</v>
       </c>
       <c r="AN62" t="n">
         <v>1.20587933656296</v>
       </c>
       <c r="AO62" t="n">
-        <v>0.0107409617706916</v>
+        <v>0.0092204786539453</v>
       </c>
       <c r="AP62" t="s">
         <v>75</v>
@@ -13171,7 +13171,7 @@
         <v>121</v>
       </c>
       <c r="AR62" t="n">
-        <v>0.010635592614721</v>
+        <v>0.00913002548279058</v>
       </c>
       <c r="AS62" t="n">
         <v>0.3809502067658</v>
@@ -13183,7 +13183,7 @@
         <v>0.551377740570263</v>
       </c>
       <c r="AV62" t="n">
-        <v>0.0107409617706916</v>
+        <v>0.0092204786539453</v>
       </c>
       <c r="AW62" t="n">
         <v>0.380907093177421</v>
@@ -13201,10 +13201,10 @@
         <v>32</v>
       </c>
       <c r="BB62" t="n">
-        <v>2.16547536133856</v>
+        <v>1.8589321674479</v>
       </c>
       <c r="BC62" t="n">
-        <v>0.00981121522936562</v>
+        <v>0.00842234638973157</v>
       </c>
       <c r="BD62" t="n">
         <v>1.00990722000998</v>
@@ -16344,7 +16344,7 @@
         <v>74</v>
       </c>
       <c r="Y81" t="n">
-        <v>-0.822556453249418</v>
+        <v>-0.586682251069448</v>
       </c>
       <c r="Z81" t="s">
         <v>75</v>
@@ -16353,7 +16353,7 @@
         <v>74</v>
       </c>
       <c r="AB81" t="n">
-        <v>-0.650378997883384</v>
+        <v>-0.46387796608875</v>
       </c>
       <c r="AC81" t="n">
         <v>0.995283536541921</v>
@@ -16365,7 +16365,7 @@
         <v>1.7889576104568</v>
       </c>
       <c r="AF81" t="n">
-        <v>-0.822556453249418</v>
+        <v>-0.586682251069448</v>
       </c>
       <c r="AG81" t="n">
         <v>0.999247587209688</v>
@@ -16383,16 +16383,16 @@
         <v>234</v>
       </c>
       <c r="AL81" t="n">
-        <v>1.67716142040735</v>
+        <v>1.1962228654877</v>
       </c>
       <c r="AM81" t="n">
-        <v>0.00143962353683034</v>
+        <v>0.00102680074290789</v>
       </c>
       <c r="AN81" t="n">
         <v>1.26473403342724</v>
       </c>
       <c r="AO81" t="n">
-        <v>-0.0176792761632673</v>
+        <v>-0.01260961177287</v>
       </c>
       <c r="AP81" t="s">
         <v>75</v>
@@ -16401,7 +16401,7 @@
         <v>121</v>
       </c>
       <c r="AR81" t="n">
-        <v>-0.0176854435225526</v>
+        <v>-0.0126140105958497</v>
       </c>
       <c r="AS81" t="n">
         <v>0.162111844285512</v>
@@ -16413,7 +16413,7 @@
         <v>1.58906062033491</v>
       </c>
       <c r="AV81" t="n">
-        <v>-0.0176792761632673</v>
+        <v>-0.01260961177287</v>
       </c>
       <c r="AW81" t="n">
         <v>0.162051859678442</v>
@@ -16431,13 +16431,13 @@
         <v>234</v>
       </c>
       <c r="BB81" t="n">
-        <v>1.67716142040735</v>
+        <v>1.1962228654877</v>
       </c>
       <c r="BC81" t="n">
-        <v>0.0100773647578124</v>
+        <v>0.00718760520035526</v>
       </c>
       <c r="BD81" t="n">
-        <v>0.999651274830771</v>
+        <v>0.99965127483077</v>
       </c>
     </row>
     <row r="82">
@@ -16514,7 +16514,7 @@
         <v>74</v>
       </c>
       <c r="Y82" t="n">
-        <v>-0.85969835972115</v>
+        <v>-0.552207774804685</v>
       </c>
       <c r="Z82" t="s">
         <v>75</v>
@@ -16523,7 +16523,7 @@
         <v>74</v>
       </c>
       <c r="AB82" t="n">
-        <v>-0.704124360492698</v>
+        <v>-0.452278339136953</v>
       </c>
       <c r="AC82" t="n">
         <v>0.995968020773487</v>
@@ -16535,7 +16535,7 @@
         <v>1.88135321001995</v>
       </c>
       <c r="AF82" t="n">
-        <v>-0.85969835972115</v>
+        <v>-0.552207774804685</v>
       </c>
       <c r="AG82" t="n">
         <v>0.998648580287234</v>
@@ -16553,16 +16553,16 @@
         <v>323</v>
       </c>
       <c r="AL82" t="n">
-        <v>2.2050821843618</v>
+        <v>1.41638461039153</v>
       </c>
       <c r="AM82" t="n">
-        <v>0.00137388298091078</v>
+        <v>0.000882482623296906</v>
       </c>
       <c r="AN82" t="n">
         <v>1.22094676446018</v>
       </c>
       <c r="AO82" t="n">
-        <v>0.0153684776488147</v>
+        <v>0.00987159362190732</v>
       </c>
       <c r="AP82" t="s">
         <v>75</v>
@@ -16571,7 +16571,7 @@
         <v>121</v>
       </c>
       <c r="AR82" t="n">
-        <v>0.0153571907345666</v>
+        <v>0.00986434372811507</v>
       </c>
       <c r="AS82" t="n">
         <v>0.173756537153652</v>
@@ -16583,7 +16583,7 @@
         <v>1.39604420081162</v>
       </c>
       <c r="AV82" t="n">
-        <v>0.0153684776488147</v>
+        <v>0.00987159362190732</v>
       </c>
       <c r="AW82" t="n">
         <v>0.17370044137695</v>
@@ -16601,10 +16601,10 @@
         <v>323</v>
       </c>
       <c r="BB82" t="n">
-        <v>2.2050821843618</v>
+        <v>1.41638461039153</v>
       </c>
       <c r="BC82" t="n">
-        <v>0.00961718086637544</v>
+        <v>0.00617737836307835</v>
       </c>
       <c r="BD82" t="n">
         <v>1.00073495956671</v>
@@ -17364,7 +17364,7 @@
         <v>74</v>
       </c>
       <c r="Y87" t="n">
-        <v>-0.982239070358599</v>
+        <v>-0.768747807145501</v>
       </c>
       <c r="Z87" t="s">
         <v>86</v>
@@ -17373,7 +17373,7 @@
         <v>87</v>
       </c>
       <c r="AB87" t="n">
-        <v>-0.982239070358599</v>
+        <v>-0.768747807145501</v>
       </c>
       <c r="AC87" t="n">
         <v>0.997876866703005</v>
@@ -17385,7 +17385,7 @@
         <v>1.25989165791167</v>
       </c>
       <c r="AF87" t="n">
-        <v>-1.11532965980964</v>
+        <v>-0.872910940011753</v>
       </c>
       <c r="AG87" t="n">
         <v>0.995063857878488</v>
@@ -17403,16 +17403,16 @@
         <v>214</v>
       </c>
       <c r="AL87" t="n">
-        <v>2.20431775548836</v>
+        <v>1.72520569779912</v>
       </c>
       <c r="AM87" t="n">
-        <v>0.00206978193003602</v>
+        <v>0.00161991145333251</v>
       </c>
       <c r="AN87" t="n">
         <v>1.13549714470475</v>
       </c>
       <c r="AO87" t="n">
-        <v>0.0154056838833487</v>
+        <v>0.0120572333765724</v>
       </c>
       <c r="AP87" t="s">
         <v>75</v>
@@ -17421,7 +17421,7 @@
         <v>121</v>
       </c>
       <c r="AR87" t="n">
-        <v>0.0105484570010873</v>
+        <v>0.008255732675543</v>
       </c>
       <c r="AS87" t="n">
         <v>0.027739098313031</v>
@@ -17433,7 +17433,7 @@
         <v>1.60924512101444</v>
       </c>
       <c r="AV87" t="n">
-        <v>0.0154056838833487</v>
+        <v>0.0120572333765724</v>
       </c>
       <c r="AW87" t="n">
         <v>0.0300146582274552</v>
@@ -17451,10 +17451,10 @@
         <v>214</v>
       </c>
       <c r="BB87" t="n">
-        <v>2.20431775548836</v>
+        <v>1.72520569779912</v>
       </c>
       <c r="BC87" t="n">
-        <v>0.0144884735102521</v>
+        <v>0.0113393801733276</v>
       </c>
       <c r="BD87" t="n">
         <v>1.46046799847227</v>
@@ -21104,7 +21104,7 @@
         <v>74</v>
       </c>
       <c r="Y109" t="n">
-        <v>-0.653223547399669</v>
+        <v>-0.87008034326918</v>
       </c>
       <c r="Z109" t="s">
         <v>86</v>
@@ -21113,7 +21113,7 @@
         <v>87</v>
       </c>
       <c r="AB109" t="n">
-        <v>-0.653223547399669</v>
+        <v>-0.87008034326918</v>
       </c>
       <c r="AC109" t="n">
         <v>0.99265670826605</v>
@@ -21125,7 +21125,7 @@
         <v>1.71242597012616</v>
       </c>
       <c r="AF109" t="n">
-        <v>-0.713215954172184</v>
+        <v>-0.94998899641857</v>
       </c>
       <c r="AG109" t="n">
         <v>0.988659612228044</v>
@@ -21143,16 +21143,16 @@
         <v>234</v>
       </c>
       <c r="AL109" t="n">
-        <v>2.20222023357952</v>
+        <v>2.93331210182912</v>
       </c>
       <c r="AM109" t="n">
-        <v>0.00189031779706396</v>
+        <v>0.00251786446508938</v>
       </c>
       <c r="AN109" t="n">
         <v>1.09184054526407</v>
       </c>
       <c r="AO109" t="n">
-        <v>0.0070164292496825</v>
+        <v>0.00934573959311432</v>
       </c>
       <c r="AP109" t="s">
         <v>86</v>
@@ -21161,7 +21161,7 @@
         <v>97</v>
       </c>
       <c r="AR109" t="n">
-        <v>0.0070164292496825</v>
+        <v>0.00934573959311432</v>
       </c>
       <c r="AS109" t="n">
         <v>0.00950842282687769</v>
@@ -21185,10 +21185,10 @@
         <v>234</v>
       </c>
       <c r="BB109" t="n">
-        <v>2.20222023357952</v>
+        <v>2.93331210182912</v>
       </c>
       <c r="BC109" t="n">
-        <v>0.0132322245794477</v>
+        <v>0.0176250512556256</v>
       </c>
       <c r="BD109"/>
     </row>
@@ -21776,7 +21776,7 @@
         <v>74</v>
       </c>
       <c r="Y113" t="n">
-        <v>0.203833323075334</v>
+        <v>0.295839365856798</v>
       </c>
       <c r="Z113" t="s">
         <v>75</v>
@@ -21785,7 +21785,7 @@
         <v>121</v>
       </c>
       <c r="AB113" t="n">
-        <v>0.20252719942948</v>
+        <v>0.293943685674136</v>
       </c>
       <c r="AC113" t="n">
         <v>0.988448095254042</v>
@@ -21797,7 +21797,7 @@
         <v>0.542519909867536</v>
       </c>
       <c r="AF113" t="n">
-        <v>0.203833323075334</v>
+        <v>0.295839365856798</v>
       </c>
       <c r="AG113" t="n">
         <v>0.988287450946061</v>
@@ -21815,16 +21815,16 @@
         <v>145</v>
       </c>
       <c r="AL113" t="n">
-        <v>1.67055472723365</v>
+        <v>2.42460773183403</v>
       </c>
       <c r="AM113" t="n">
-        <v>0.00232021489893562</v>
+        <v>0.00336751073865837</v>
       </c>
       <c r="AN113" t="n">
         <v>1.00644912707791</v>
       </c>
       <c r="AO113" t="n">
-        <v>0.00534905901263441</v>
+        <v>0.0077635109036784</v>
       </c>
       <c r="AP113" t="s">
         <v>86</v>
@@ -21833,7 +21833,7 @@
         <v>97</v>
       </c>
       <c r="AR113" t="n">
-        <v>0.00534905901263441</v>
+        <v>0.0077635109036784</v>
       </c>
       <c r="AS113" t="n">
         <v>0.000686279143143786</v>
@@ -21857,10 +21857,10 @@
         <v>145</v>
       </c>
       <c r="BB113" t="n">
-        <v>1.67055472723365</v>
+        <v>2.42460773183403</v>
       </c>
       <c r="BC113" t="n">
-        <v>0.0162415042925493</v>
+        <v>0.0235725751706086</v>
       </c>
       <c r="BD113"/>
     </row>
@@ -21938,7 +21938,7 @@
         <v>74</v>
       </c>
       <c r="Y114" t="n">
-        <v>-0.0265787281801057</v>
+        <v>-0.0529808535151609</v>
       </c>
       <c r="Z114" t="s">
         <v>75</v>
@@ -21947,7 +21947,7 @@
         <v>121</v>
       </c>
       <c r="AB114" t="n">
-        <v>-0.0265008321895884</v>
+        <v>-0.0528255791154587</v>
       </c>
       <c r="AC114" t="n">
         <v>0.631258971414158</v>
@@ -21959,7 +21959,7 @@
         <v>0.664721646140074</v>
       </c>
       <c r="AF114" t="n">
-        <v>-0.0265787281801057</v>
+        <v>-0.0529808535151609</v>
       </c>
       <c r="AG114" t="n">
         <v>0.630742645094149</v>
@@ -21977,16 +21977,16 @@
         <v>192</v>
       </c>
       <c r="AL114" t="n">
-        <v>1.66901492566205</v>
+        <v>3.32694005115358</v>
       </c>
       <c r="AM114" t="n">
-        <v>0.00174765960802308</v>
+        <v>0.00348370685984668</v>
       </c>
       <c r="AN114" t="n">
         <v>1.00293937903384</v>
       </c>
       <c r="AO114" t="n">
-        <v>0.0000903842660074929</v>
+        <v>0.000180167972107959</v>
       </c>
       <c r="AP114" t="s">
         <v>86</v>
@@ -21995,7 +21995,7 @@
         <v>97</v>
       </c>
       <c r="AR114" t="n">
-        <v>0.0000903842660074929</v>
+        <v>0.000180167972107959</v>
       </c>
       <c r="AS114" t="n">
         <v>-0.00525794888682607</v>
@@ -22019,10 +22019,10 @@
         <v>192</v>
       </c>
       <c r="BB114" t="n">
-        <v>1.66901492566205</v>
+        <v>3.32694005115358</v>
       </c>
       <c r="BC114" t="n">
-        <v>0.0122336172561616</v>
+        <v>0.0243859480189268</v>
       </c>
       <c r="BD114"/>
     </row>
@@ -22780,7 +22780,7 @@
         <v>74</v>
       </c>
       <c r="Y119" t="n">
-        <v>-2.81027477653557</v>
+        <v>-2.32305769791835</v>
       </c>
       <c r="Z119" t="s">
         <v>75</v>
@@ -22789,7 +22789,7 @@
         <v>74</v>
       </c>
       <c r="AB119" t="n">
-        <v>-1.80093274765803</v>
+        <v>-1.48870520342418</v>
       </c>
       <c r="AC119" t="n">
         <v>0.988925265070172</v>
@@ -22801,7 +22801,7 @@
         <v>6.38339284059129</v>
       </c>
       <c r="AF119" t="n">
-        <v>-2.81027477653557</v>
+        <v>-2.32305769791835</v>
       </c>
       <c r="AG119" t="n">
         <v>0.998237588871825</v>
@@ -22819,16 +22819,16 @@
         <v>255</v>
       </c>
       <c r="AL119" t="n">
-        <v>2.18308758883322</v>
+        <v>1.80460589505804</v>
       </c>
       <c r="AM119" t="n">
-        <v>0.00172576093978911</v>
+        <v>0.00142656592494707</v>
       </c>
       <c r="AN119" t="n">
         <v>1.560455147584</v>
       </c>
       <c r="AO119" t="n">
-        <v>0.0231385361036742</v>
+        <v>0.0191270102350868</v>
       </c>
       <c r="AP119" t="s">
         <v>86</v>
@@ -22837,7 +22837,7 @@
         <v>160</v>
       </c>
       <c r="AR119" t="n">
-        <v>0.0231385361036742</v>
+        <v>0.0191270102350868</v>
       </c>
       <c r="AS119" t="n">
         <v>0.190430495508344</v>
@@ -22849,7 +22849,7 @@
         <v>1.58478025381254</v>
       </c>
       <c r="AV119" t="n">
-        <v>0.0552140397124166</v>
+        <v>0.0456415867437777</v>
       </c>
       <c r="AW119" t="n">
         <v>0.203298281441208</v>
@@ -22867,10 +22867,10 @@
         <v>255</v>
       </c>
       <c r="BB119" t="n">
-        <v>2.18308758883322</v>
+        <v>1.80460589505804</v>
       </c>
       <c r="BC119" t="n">
-        <v>0.0120803265785237</v>
+        <v>0.00998596147462948</v>
       </c>
       <c r="BD119" t="n">
         <v>2.38623737755168</v>
@@ -22950,7 +22950,7 @@
         <v>74</v>
       </c>
       <c r="Y120" t="n">
-        <v>-0.745954122843652</v>
+        <v>-0.493006444272289</v>
       </c>
       <c r="Z120" t="s">
         <v>86</v>
@@ -22959,7 +22959,7 @@
         <v>87</v>
       </c>
       <c r="AB120" t="n">
-        <v>-0.745954122843652</v>
+        <v>-0.493006444272289</v>
       </c>
       <c r="AC120" t="n">
         <v>0.996058952081403</v>
@@ -22971,7 +22971,7 @@
         <v>1.10501345179645</v>
       </c>
       <c r="AF120" t="n">
-        <v>-0.811735154461173</v>
+        <v>-0.536481601128704</v>
       </c>
       <c r="AG120" t="n">
         <v>0.993234522414057</v>
@@ -22989,16 +22989,16 @@
         <v>179</v>
       </c>
       <c r="AL120" t="n">
-        <v>2.18166195947397</v>
+        <v>1.44187607830919</v>
       </c>
       <c r="AM120" t="n">
-        <v>0.00245130557244266</v>
+        <v>0.00162008548124628</v>
       </c>
       <c r="AN120" t="n">
         <v>1.08818374964771</v>
       </c>
       <c r="AO120" t="n">
-        <v>0.0183831515974036</v>
+        <v>0.0121495570920706</v>
       </c>
       <c r="AP120" t="s">
         <v>75</v>
@@ -23007,7 +23007,7 @@
         <v>121</v>
       </c>
       <c r="AR120" t="n">
-        <v>0.0164688206184033</v>
+        <v>0.0108843619812514</v>
       </c>
       <c r="AS120" t="n">
         <v>0.0686268302185884</v>
@@ -23019,7 +23019,7 @@
         <v>1.37726912067831</v>
       </c>
       <c r="AV120" t="n">
-        <v>0.0183831515974036</v>
+        <v>0.0121495570920706</v>
       </c>
       <c r="AW120" t="n">
         <v>0.0686741293087725</v>
@@ -23028,7 +23028,7 @@
         <v>1.37723414844301</v>
       </c>
       <c r="AY120" t="s">
-        <v>242</v>
+        <v>74</v>
       </c>
       <c r="AZ120" t="s">
         <v>74</v>
@@ -23037,10 +23037,10 @@
         <v>179</v>
       </c>
       <c r="BB120" t="n">
-        <v>2.18166195947397</v>
+        <v>1.44187607830919</v>
       </c>
       <c r="BC120" t="n">
-        <v>0.0171591390070986</v>
+        <v>0.0113405983687239</v>
       </c>
       <c r="BD120" t="n">
         <v>1.11623971280986</v>
@@ -23800,7 +23800,7 @@
         <v>74</v>
       </c>
       <c r="Y125" t="n">
-        <v>-1.10958864822183</v>
+        <v>-0.986497632028184</v>
       </c>
       <c r="Z125" t="s">
         <v>86</v>
@@ -23809,7 +23809,7 @@
         <v>87</v>
       </c>
       <c r="AB125" t="n">
-        <v>-1.10958864822183</v>
+        <v>-0.986497632028184</v>
       </c>
       <c r="AC125" t="n">
         <v>0.999264020205677</v>
@@ -23821,7 +23821,7 @@
         <v>0.966387953466893</v>
       </c>
       <c r="AF125" t="n">
-        <v>-1.32396143939219</v>
+        <v>-1.17708920954633</v>
       </c>
       <c r="AG125" t="n">
         <v>0.996544219694365</v>
@@ -23839,16 +23839,16 @@
         <v>245</v>
       </c>
       <c r="AL125" t="n">
-        <v>2.18662206090237</v>
+        <v>1.94405150834737</v>
       </c>
       <c r="AM125" t="n">
-        <v>0.00179231316467407</v>
+        <v>0.00159348484290768</v>
       </c>
       <c r="AN125" t="n">
         <v>1.19320023822693</v>
       </c>
       <c r="AO125" t="n">
-        <v>0.0419940534760873</v>
+        <v>0.0373354885883284</v>
       </c>
       <c r="AP125" t="s">
         <v>75</v>
@@ -23857,7 +23857,7 @@
         <v>74</v>
       </c>
       <c r="AR125" t="n">
-        <v>0.0212229171632795</v>
+        <v>0.0188685758094741</v>
       </c>
       <c r="AS125" t="n">
         <v>0.179867907991011</v>
@@ -23869,7 +23869,7 @@
         <v>1.44094395514114</v>
       </c>
       <c r="AV125" t="n">
-        <v>0.0419940534760873</v>
+        <v>0.0373354885883284</v>
       </c>
       <c r="AW125" t="n">
         <v>0.187850477721928</v>
@@ -23887,10 +23887,10 @@
         <v>245</v>
       </c>
       <c r="BB125" t="n">
-        <v>2.18662206090237</v>
+        <v>1.94405150834737</v>
       </c>
       <c r="BC125" t="n">
-        <v>0.0125461921527185</v>
+        <v>0.0111543939003537</v>
       </c>
       <c r="BD125" t="n">
         <v>1.97871259417375</v>
